--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.0-alpha</t>
   </si>
   <si>
     <t>Name</t>
